--- a/Сайты+что добавил/Список сайтов часть первая/Сайты компаний - 1.xlsx
+++ b/Сайты+что добавил/Список сайтов часть первая/Сайты компаний - 1.xlsx
@@ -700,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -733,9 +733,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,6 +771,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1059,14 +1065,14 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="53.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1076,7 +1082,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1087,10 +1093,10 @@
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1098,10 +1104,10 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
@@ -1115,7 +1121,7 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
@@ -1129,7 +1135,7 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
@@ -1140,13 +1146,13 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1154,10 +1160,10 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -1168,10 +1174,10 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
@@ -1182,13 +1188,13 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1196,13 +1202,13 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1210,10 +1216,10 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
@@ -1224,13 +1230,13 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1238,10 +1244,10 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
@@ -1252,13 +1258,13 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1266,13 +1272,13 @@
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1283,10 +1289,10 @@
       <c r="B16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1297,7 +1303,7 @@
       <c r="B17" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
@@ -1311,7 +1317,7 @@
       <c r="B18" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
@@ -1322,10 +1328,10 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
@@ -1336,13 +1342,13 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1350,10 +1356,10 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
@@ -1367,7 +1373,7 @@
       <c r="B22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
@@ -1378,13 +1384,13 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1392,13 +1398,13 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1406,13 +1412,13 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1420,14 +1426,14 @@
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1435,10 +1441,10 @@
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="2"/>
@@ -1450,14 +1456,14 @@
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1465,14 +1471,14 @@
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1480,14 +1486,14 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1495,10 +1501,10 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="3"/>
@@ -1510,14 +1516,14 @@
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1525,14 +1531,14 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1540,14 +1546,14 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1558,11 +1564,11 @@
       <c r="B35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1570,13 +1576,13 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1587,10 +1593,10 @@
       <c r="B37" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1601,10 +1607,10 @@
       <c r="B38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1615,7 +1621,7 @@
       <c r="B39" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>82</v>
       </c>
       <c r="E39" t="s">
@@ -1629,10 +1635,10 @@
       <c r="B40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1640,13 +1646,13 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="23" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1654,13 +1660,13 @@
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1668,13 +1674,13 @@
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="19" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1682,13 +1688,13 @@
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1696,13 +1702,13 @@
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1710,10 +1716,10 @@
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>89</v>
       </c>
       <c r="E46" t="s">
@@ -1724,13 +1730,13 @@
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1741,7 +1747,7 @@
       <c r="B48" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>91</v>
       </c>
       <c r="E48" t="s">
@@ -1749,7 +1755,7 @@
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="21"/>
+      <c r="E49" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Сайты+что добавил/Список сайтов часть первая/Сайты компаний - 1.xlsx
+++ b/Сайты+что добавил/Список сайтов часть первая/Сайты компаний - 1.xlsx
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
